--- a/MATRIZ ESTACIONAMIENTO INTELIGENTE.xlsx
+++ b/MATRIZ ESTACIONAMIENTO INTELIGENTE.xlsx
@@ -63,7 +63,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,20 +99,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -127,14 +118,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,13 +403,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="30.28515625" customWidth="1" min="1" max="1"/>
     <col width="34.42578125" customWidth="1" min="2" max="2"/>
@@ -538,12 +528,12 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>LOPEZ CAMACHO ROSA ELVIRA</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D2" s="4" t="n">
@@ -605,12 +595,12 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">OCAMPO BEATRIZ VIVIANA </t>
         </is>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -643,7 +633,9 @@
       <c r="K3" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" s="4" t="n">
         <v>10167</v>
       </c>
@@ -657,6 +649,11 @@
         <v>3</v>
       </c>
       <c r="Q3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -668,12 +665,12 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGUEZ OSPINA LUIS ALEXANDER </t>
         </is>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D4" s="4" t="n">
@@ -706,7 +703,9 @@
       <c r="K4" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="L4" s="4" t="n"/>
+      <c r="L4" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="M4" s="4" t="n">
         <v>58</v>
       </c>
@@ -718,6 +717,11 @@
       </c>
       <c r="P4" t="n">
         <v>4</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -726,12 +730,12 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>TOMMASONE ENZO RICARDO</t>
         </is>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -764,7 +768,9 @@
       <c r="K5" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" s="4" t="n">
         <v>1867</v>
       </c>
@@ -776,6 +782,11 @@
       </c>
       <c r="P5" t="n">
         <v>5</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -784,12 +795,12 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>MAXIT JUAN CARLOS ANTONIO</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -822,7 +833,9 @@
       <c r="K6" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="L6" s="4" t="n"/>
+      <c r="L6" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="M6" s="4" t="n">
         <v>2014</v>
       </c>
@@ -834,6 +847,11 @@
       </c>
       <c r="P6" t="n">
         <v>6</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -842,12 +860,12 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>COLONNELLO CLAUDIA RITA</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="n">
@@ -880,7 +898,9 @@
       <c r="K7" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="L7" s="4" t="n"/>
+      <c r="L7" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" s="4" t="n">
         <v>161</v>
       </c>
@@ -892,6 +912,11 @@
       </c>
       <c r="P7" t="n">
         <v>7</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -900,19 +925,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RUIZ DIAZ ELIANA PATRICIA </t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAGALLANES VANESA </t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>12221</v>
+        <v>12222</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -935,17 +960,28 @@
       <c r="J8" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
+      <c r="K8" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" t="n">
         <v>8</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -954,19 +990,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MAGALLANES VANESA </t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANQUEZ ROSA ELENA </t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>12222</v>
+        <v>12233</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -990,20 +1026,27 @@
         <v>1226</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="L9" s="4" t="n"/>
+        <v>49</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="M9" s="4" t="n">
-        <v>20</v>
+        <v>4978</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>9</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1012,19 +1055,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MANQUES ROSA ELENA </t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>MARINO DANIEL EDGARDO</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12233</v>
+        <v>12227</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
@@ -1048,20 +1091,27 @@
         <v>1226</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="L10" s="4" t="n"/>
+        <v>45</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>31</v>
+      </c>
       <c r="M10" s="4" t="n">
-        <v>4978</v>
+        <v>70</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>4800</v>
+        <v>9250</v>
       </c>
       <c r="O10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>10</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1070,19 +1120,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CORSARIO HORACIO ALFREDO </t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>MARINO DANIEL EDGARDO</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>12236</v>
+        <v>12227</v>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
@@ -1105,17 +1155,28 @@
       <c r="J11" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K11" s="4" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="M11" s="4" t="n"/>
+      <c r="K11" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>63</v>
+      </c>
       <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="O11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" t="n">
         <v>11</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1124,19 +1185,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>MARINO DANIEL EDGARDO</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VILLAGRA VIVIANA ALEJANDRA </t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>12227</v>
+        <v>12220</v>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
@@ -1160,20 +1221,27 @@
         <v>1226</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="L12" s="4" t="n"/>
+        <v>49</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="M12" s="4" t="n">
-        <v>70</v>
+        <v>620</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9250</v>
+        <v>1250</v>
       </c>
       <c r="O12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>12</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1182,19 +1250,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>MARINO DANIEL EDGARDO</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LOPEZ SANDRA MABEL </t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>12227</v>
+        <v>12234</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -1218,20 +1286,27 @@
         <v>1226</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="L13" s="4" t="n"/>
+        <v>49</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" s="4" t="n">
-        <v>63</v>
+        <v>9219</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>3600</v>
+        <v>5250</v>
       </c>
       <c r="O13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>13</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1240,19 +1315,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>50 MAS RETAILERS S.A</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECHAVE MARIA INES </t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>12238</v>
+        <v>12225</v>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
@@ -1275,17 +1350,38 @@
       <c r="J14" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="4" t="n"/>
+      <c r="K14" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>107</v>
+      </c>
       <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="O14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>14</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1294,19 +1390,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>GONZALES DAMIAN ALFREDO</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALVAREZ FERNANDA VALENTINA </t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>12237</v>
+        <v>10765</v>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
@@ -1329,17 +1425,28 @@
       <c r="J15" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="M15" s="4" t="n"/>
+      <c r="K15" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>656</v>
+      </c>
       <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>15</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1348,19 +1455,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VILLAGRA VIVIANA ALEJANDRA </t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALVAREZ FERNANDA VALENTINA </t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>12220</v>
+        <v>10765</v>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
@@ -1383,17 +1490,28 @@
       <c r="J16" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K16" s="4" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="M16" s="4" t="n"/>
+      <c r="K16" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>3250</v>
+      </c>
       <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>16</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1402,19 +1520,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LOPEZ SANDRA MABEL </t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="n">
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUPER EMBALAJE S.A </t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>12234</v>
+        <v>11552</v>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
@@ -1437,17 +1555,30 @@
       <c r="J17" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K17" s="4" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="M17" s="4" t="n"/>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+      <c r="K17" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>3188</v>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>1.499,97</t>
+        </is>
       </c>
       <c r="O17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>17</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1456,19 +1587,19 @@
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ECHAVE MARIA INES </t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="n">
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RIBERO LUCIA </t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>12225</v>
+        <v>12231</v>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
@@ -1491,11 +1622,17 @@
       <c r="J18" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
+      <c r="K18" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>9501</v>
+      </c>
       <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="O18" s="4" t="n">
         <v>1</v>
@@ -1503,26 +1640,31 @@
       <c r="P18" t="n">
         <v>18</v>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALVAREZ FERNANDA VALENTINA </t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="n">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>GILES MARTIN SIXTO NICOLAS</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v>10765</v>
+      <c r="E19" s="8" t="n">
+        <v>12326</v>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
@@ -1546,14 +1688,16 @@
         <v>1226</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="L19" s="4" t="n"/>
+        <v>49</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="M19" s="4" t="n">
-        <v>656</v>
+        <v>59</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="O19" s="4" t="n">
         <v>1</v>
@@ -1561,26 +1705,31 @@
       <c r="P19" t="n">
         <v>19</v>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALVAREZ FERNANDA VALENTINA </t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="n">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>HEAVY LEANDRO</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v>10765</v>
+      <c r="E20" s="8" t="n">
+        <v>12332</v>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
@@ -1606,12 +1755,14 @@
       <c r="K20" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="L20" s="4" t="n"/>
+      <c r="L20" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" s="4" t="n">
-        <v>3250</v>
+        <v>215</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="O20" s="4" t="n">
         <v>1</v>
@@ -1619,26 +1770,31 @@
       <c r="P20" t="n">
         <v>20</v>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUPER EMBALAJE S.A </t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="n">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>REPUESTOS GARCIA S.A.</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>11552</v>
+      <c r="E21" s="8" t="n">
+        <v>1647</v>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
@@ -1664,14 +1820,14 @@
       <c r="K21" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="L21" s="4" t="n"/>
+      <c r="L21" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="M21" s="4" t="n">
-        <v>3188</v>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>1499,97</t>
-        </is>
+        <v>558</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1750</v>
       </c>
       <c r="O21" s="4" t="n">
         <v>1</v>
@@ -1679,26 +1835,31 @@
       <c r="P21" t="n">
         <v>21</v>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RIBERO LUCIA </t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="n">
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>ARGUELLO JULIAN ANTONIO</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>12231</v>
+      <c r="E22" s="8" t="n">
+        <v>12325</v>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
@@ -1724,12 +1885,14 @@
       <c r="K22" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="L22" s="4" t="n"/>
+      <c r="L22" s="4" t="n">
+        <v>6</v>
+      </c>
       <c r="M22" s="4" t="n">
-        <v>9501</v>
+        <v>157</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="O22" s="4" t="n">
         <v>1</v>
@@ -1737,26 +1900,31 @@
       <c r="P22" t="n">
         <v>22</v>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>ESTACIONAMIENTO INTELIGENTE</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>REBORA CLAUDIO HUGO</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="n">
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>ARGUELLO JULIAN ANTONIO</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n">
         <v>16</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>12243</v>
+      <c r="E23" s="8" t="n">
+        <v>12325</v>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
@@ -1779,11 +1947,17 @@
       <c r="J23" s="4" t="n">
         <v>1226</v>
       </c>
-      <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
-      <c r="M23" s="4" t="n"/>
+      <c r="K23" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>165</v>
+      </c>
       <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="O23" s="4" t="n">
         <v>1</v>
@@ -1791,14 +1965,342 @@
       <c r="P23" t="n">
         <v>23</v>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="n"/>
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>ESTACIONAMIENTO INTELIGENTE</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>RUDZ JEREMIAS IVAN</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>12416</v>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>1.1.1.01.43.000</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>3.5.5</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>1226</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>ESTACIONAMIENTO INTELIGENTE</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>GALLARDO ELIO</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>12452</v>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>1.1.1.01.43.000</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>3.5.5</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="n">
+        <v>1226</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>ESTACIONAMIENTO INTELIGENTE</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>SKIENDZIEL HUGO GERARDO</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>354</v>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>1.1.1.01.43.000</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>3.5.5</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>1226</v>
+      </c>
+      <c r="K26" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>4815</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>2250</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>ESTACIONAMIENTO INTELIGENTE</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>MERELLO PATRICIA ALEJANDRA</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>12331</v>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>1.1.1.01.43.000</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>3.5.5</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>1226</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="8" t="n">
+        <v>1822</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>ESTACIONAMIENTO INTELIGENTE</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>SOTO ROJAS ANA CAROLINA</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>12476</v>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>1.1.1.01.43.000</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>3.5.5</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>1226</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>3750</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -2768,11 +3270,6 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/MATRIZ ESTACIONAMIENTO INTELIGENTE.xlsx
+++ b/MATRIZ ESTACIONAMIENTO INTELIGENTE.xlsx
@@ -405,8 +405,8 @@
   </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1905,6 +1905,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="inlineStr">
@@ -1970,6 +1975,11 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="inlineStr">
@@ -2031,6 +2041,11 @@
         <v>24</v>
       </c>
       <c r="Q24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
